--- a/FJournal.xlsx
+++ b/FJournal.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t xml:space="preserve">итог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 ставок</t>
   </si>
   <si>
     <t xml:space="preserve">3+, 6-, 2в</t>
@@ -293,9 +296,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF404040"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -470,7 +472,7 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF404040"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -555,11 +557,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="29739704"/>
-        <c:axId val="73526384"/>
+        <c:axId val="82118429"/>
+        <c:axId val="11712803"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="29739704"/>
+        <c:axId val="82118429"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -633,14 +635,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73526384"/>
+        <c:crossAx val="11712803"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73526384"/>
+        <c:axId val="11712803"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,7 +723,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29739704"/>
+        <c:crossAx val="82118429"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -769,9 +771,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>447480</xdr:colOff>
+      <xdr:colOff>447120</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>180720</xdr:rowOff>
+      <xdr:rowOff>180360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -779,8 +781,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="645120" y="6172200"/>
-        <a:ext cx="12601080" cy="4485960"/>
+        <a:off x="644400" y="6172200"/>
+        <a:ext cx="12596040" cy="4485600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -801,19 +803,19 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.99"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.42"/>
@@ -1380,9 +1382,12 @@
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="1" t="n">
         <f aca="false">L14-L2</f>
@@ -1391,13 +1396,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -1442,7 +1447,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1541,7 +1546,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
@@ -1575,7 +1580,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>30</v>
@@ -1609,10 +1614,10 @@
         <v>42788</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>15</v>
@@ -1646,19 +1651,19 @@
         <v>42777</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>2.05</v>
@@ -1743,7 +1748,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1755,10 +1760,10 @@
         <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
@@ -1781,7 +1786,7 @@
         <v>31578</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
